--- a/Project Progress.xlsx
+++ b/Project Progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A. Khan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Railway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A037D1-F9C9-4C1F-8D57-E9917B3D09F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35163110-58D9-432F-BB53-3726EFFE3800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{50A383F2-2609-46D6-8D34-0437E587AA94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Railyway Management System</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Project Progress</t>
+  </si>
+  <si>
+    <t>Alvi</t>
+  </si>
+  <si>
+    <t>Assigned</t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -640,9 +646,11 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
